--- a/web/files/pko_ko-1.xlsx
+++ b/web/files/pko_ko-1.xlsx
@@ -188,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -227,6 +227,12 @@
     </font>
     <font>
       <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
     </font>
@@ -963,7 +969,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -975,7 +981,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1013,8 +1019,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
@@ -1305,9 +1311,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1387,7 +1393,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1415,10 +1421,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1674,9 +1680,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1964,7 +1970,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1992,10 +1998,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -6249,74 +6255,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="BU29:CD29"/>
+    <mergeCell ref="BQ25:CU25"/>
     <mergeCell ref="U20:AC20"/>
-    <mergeCell ref="BQ25:CU25"/>
-    <mergeCell ref="Z33:AK33"/>
+    <mergeCell ref="F27:BK27"/>
+    <mergeCell ref="BX16:CU16"/>
     <mergeCell ref="N34:W34"/>
     <mergeCell ref="CH37:CS37"/>
-    <mergeCell ref="BR29:BS29"/>
+    <mergeCell ref="Z33:AK33"/>
     <mergeCell ref="BQ19:CU19"/>
     <mergeCell ref="BQ18:CU18"/>
-    <mergeCell ref="BX16:CU16"/>
-    <mergeCell ref="F27:BK27"/>
+    <mergeCell ref="BV21:CI21"/>
+    <mergeCell ref="AM20:AV20"/>
     <mergeCell ref="A26:BK26"/>
+    <mergeCell ref="BU29:CD29"/>
     <mergeCell ref="I25:BK25"/>
-    <mergeCell ref="U21:AC21"/>
-    <mergeCell ref="BQ26:CI26"/>
     <mergeCell ref="N33:W33"/>
     <mergeCell ref="CH36:CS36"/>
+    <mergeCell ref="CF29:CI29"/>
     <mergeCell ref="BQ17:CU17"/>
     <mergeCell ref="CM26:CR26"/>
     <mergeCell ref="A23:H24"/>
     <mergeCell ref="BV22:CI22"/>
-    <mergeCell ref="BV21:CI21"/>
-    <mergeCell ref="CF29:CI29"/>
+    <mergeCell ref="BR29:BS29"/>
     <mergeCell ref="CM10:CU10"/>
     <mergeCell ref="AM21:AV21"/>
+    <mergeCell ref="CL33:CU33"/>
     <mergeCell ref="U18:AC18"/>
     <mergeCell ref="BQ23:CU23"/>
+    <mergeCell ref="U21:AC21"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="BF20:BK20"/>
     <mergeCell ref="L21:T21"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="BF20:BK20"/>
-    <mergeCell ref="AM20:AV20"/>
     <mergeCell ref="Z36:AK36"/>
     <mergeCell ref="AD20:AL20"/>
     <mergeCell ref="L20:T20"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="A20:F20"/>
+    <mergeCell ref="BF21:BK21"/>
     <mergeCell ref="I23:BK24"/>
-    <mergeCell ref="BF21:BK21"/>
     <mergeCell ref="BF19:BK19"/>
     <mergeCell ref="AM19:AV19"/>
     <mergeCell ref="BM1:BN37"/>
     <mergeCell ref="CC34:CJ34"/>
+    <mergeCell ref="L19:T19"/>
     <mergeCell ref="I31:BK31"/>
-    <mergeCell ref="L19:T19"/>
     <mergeCell ref="AU29:BH29"/>
     <mergeCell ref="AW21:BE21"/>
     <mergeCell ref="AZ9:BK10"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="AM18:AV18"/>
-    <mergeCell ref="CL33:CU33"/>
     <mergeCell ref="CC33:CJ33"/>
     <mergeCell ref="I30:BK30"/>
     <mergeCell ref="L18:T18"/>
     <mergeCell ref="AW20:BE20"/>
     <mergeCell ref="AZ8:BK8"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="AR15:BA15"/>
     <mergeCell ref="A29:AQ29"/>
     <mergeCell ref="BB14:BK14"/>
     <mergeCell ref="N37:W37"/>
     <mergeCell ref="AR14:BA14"/>
     <mergeCell ref="AM17:AV17"/>
     <mergeCell ref="AW17:BE17"/>
+    <mergeCell ref="AW19:BE19"/>
+    <mergeCell ref="AZ7:BK7"/>
     <mergeCell ref="BW12:CF12"/>
-    <mergeCell ref="AZ7:BK7"/>
-    <mergeCell ref="AW19:BE19"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="N36:W36"/>
     <mergeCell ref="AR13:BA13"/>
@@ -6328,31 +6332,33 @@
     <mergeCell ref="AD19:AL19"/>
     <mergeCell ref="G17:AL17"/>
     <mergeCell ref="BQ4:CU4"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="AD18:AL18"/>
-    <mergeCell ref="Z34:AK34"/>
-    <mergeCell ref="BY27:CU27"/>
     <mergeCell ref="AD21:AL21"/>
     <mergeCell ref="Z37:AK37"/>
+    <mergeCell ref="Z34:AK34"/>
+    <mergeCell ref="AD18:AL18"/>
+    <mergeCell ref="BY27:CU27"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="BQ6:CU7"/>
-    <mergeCell ref="BY14:CU14"/>
     <mergeCell ref="F28:BK28"/>
     <mergeCell ref="BF17:BK17"/>
     <mergeCell ref="A10:AX10"/>
+    <mergeCell ref="AR15:BA15"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="BQ15:CU15"/>
+    <mergeCell ref="CL34:CU34"/>
+    <mergeCell ref="BT12:BU12"/>
+    <mergeCell ref="BQ24:CU24"/>
+    <mergeCell ref="U19:AC19"/>
     <mergeCell ref="BB15:BK15"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="BQ24:CU24"/>
-    <mergeCell ref="BT12:BU12"/>
+    <mergeCell ref="BV36:CE36"/>
+    <mergeCell ref="BQ3:CU3"/>
+    <mergeCell ref="AW18:BE18"/>
+    <mergeCell ref="AZ6:BK6"/>
+    <mergeCell ref="A11:AX11"/>
+    <mergeCell ref="BF18:BK18"/>
+    <mergeCell ref="BY14:CU14"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="H14:AP16"/>
-    <mergeCell ref="AW18:BE18"/>
-    <mergeCell ref="AZ6:BK6"/>
-    <mergeCell ref="CL34:CU34"/>
-    <mergeCell ref="BQ15:CU15"/>
-    <mergeCell ref="BF18:BK18"/>
-    <mergeCell ref="A11:AX11"/>
-    <mergeCell ref="BV36:CE36"/>
-    <mergeCell ref="BQ3:CU3"/>
   </mergeCells>
   <pageMargins left="0.393701" right="0.393701" top="0.393701" bottom="0.393701" header="0.275591" footer="0.275591"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="68" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
